--- a/scripts/simPlan.xlsx
+++ b/scripts/simPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{879F998D-40CF-4652-B0F6-2361518C0DFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE319E2-1730-469F-9513-37A16D3E3535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
   <si>
     <t>iOJDZCUKWsPIjut3CFrKXQ</t>
   </si>
@@ -211,6 +211,9 @@
   </si>
   <si>
     <t>WT_YAW_15_27.sim</t>
+  </si>
+  <si>
+    <t>20</t>
   </si>
 </sst>
 </file>
@@ -568,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7076140-01E0-454A-827D-3A4389EF111A}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
+      <selection activeCell="Q22" sqref="Q22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -623,8 +626,8 @@
       <c r="A6" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B6" s="2">
-        <v>2</v>
+      <c r="B6" s="2" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -755,7 +758,7 @@
         <v>23</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S13" s="1" t="s">
         <v>24</v>
@@ -817,7 +820,7 @@
         <v>23</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S14" s="1" t="s">
         <v>24</v>
@@ -879,7 +882,7 @@
         <v>23</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S15" s="1" t="s">
         <v>24</v>
@@ -941,7 +944,7 @@
         <v>23</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S16" s="1" t="s">
         <v>24</v>
@@ -1003,7 +1006,7 @@
         <v>23</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S17" s="1" t="s">
         <v>24</v>
@@ -1065,7 +1068,7 @@
         <v>23</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S18" s="1" t="s">
         <v>24</v>
@@ -1127,7 +1130,7 @@
         <v>23</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S19" s="1" t="s">
         <v>24</v>
@@ -1189,7 +1192,7 @@
         <v>23</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S20" s="1" t="s">
         <v>24</v>
@@ -1251,7 +1254,7 @@
         <v>23</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S21" s="1" t="s">
         <v>24</v>
@@ -1313,7 +1316,7 @@
         <v>23</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S22" s="1" t="s">
         <v>24</v>
@@ -1375,7 +1378,7 @@
         <v>23</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S23" s="1" t="s">
         <v>24</v>
@@ -1437,7 +1440,7 @@
         <v>23</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S24" s="1" t="s">
         <v>24</v>
@@ -1499,7 +1502,7 @@
         <v>23</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="S25" s="1" t="s">
         <v>24</v>

--- a/scripts/simPlan.xlsx
+++ b/scripts/simPlan.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CEE319E2-1730-469F-9513-37A16D3E3535}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFEFA2-886B-430E-91B9-6E5ED00B76DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7076140-01E0-454A-827D-3A4389EF111A}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G17" workbookViewId="0">
-      <selection activeCell="Q22" sqref="Q22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -603,7 +603,7 @@
         <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -611,7 +611,7 @@
         <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -635,7 +635,7 @@
         <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -1522,7 +1522,7 @@
   <dimension ref="A2:B12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="A8" sqref="A8:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>

--- a/scripts/simPlan.xlsx
+++ b/scripts/simPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4AFEFA2-886B-430E-91B9-6E5ED00B76DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFA576-CF8E-4049-9E55-8BC7580307CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" activeTab="1" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation plan" sheetId="1" r:id="rId1"/>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
   <si>
     <t>iOJDZCUKWsPIjut3CFrKXQ</t>
   </si>
   <si>
-    <t>fileName</t>
-  </si>
-  <si>
     <t>newName</t>
   </si>
   <si>
@@ -144,12 +141,6 @@
     <t>C:\Users\rauna\Documents\CFD</t>
   </si>
   <si>
-    <t>"/scratch/scholar/rkumaran/Simulation_space"</t>
-  </si>
-  <si>
-    <t>"/home/rkumaran/Desktop/star/13.04.010-R8/STAR-CCM+13.04.010-R8/star/bin/starccm+"</t>
-  </si>
-  <si>
     <t>15</t>
   </si>
   <si>
@@ -214,6 +205,15 @@
   </si>
   <si>
     <t>20</t>
+  </si>
+  <si>
+    <t>FILENAME</t>
+  </si>
+  <si>
+    <t>/scratch/scholar/rkumaran/Simulation_space</t>
+  </si>
+  <si>
+    <t>/home/rkumaran/Desktop/star/13.04.010-R8/STAR-CCM+13.04.010-R8/star/bin/starccm+</t>
   </si>
 </sst>
 </file>
@@ -571,8 +571,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7076140-01E0-454A-827D-3A4389EF111A}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:XFD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -595,28 +595,28 @@
   <sheetData>
     <row r="1" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="4" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="5" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="2" t="s">
         <v>0</v>
@@ -624,96 +624,96 @@
     </row>
     <row r="6" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
     </row>
     <row r="7" spans="1:20" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="C12" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="C12" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="F12" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F12" s="1" t="s">
+      <c r="G12" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="H12" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="I12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I12" s="1" t="s">
+      <c r="J12" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="1" t="s">
+      <c r="K12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K12" s="1" t="s">
+      <c r="L12" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="M12" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="N12" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="O12" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="P12" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P12" s="1" t="s">
+      <c r="Q12" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q12" s="1" t="s">
+      <c r="R12" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="S12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="T12" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="T12" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D13" s="1">
         <v>0</v>
@@ -740,42 +740,42 @@
         <v>0</v>
       </c>
       <c r="L13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M13" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N13" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O13" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="P13" s="1">
         <v>1000</v>
       </c>
       <c r="Q13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T13" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D14" s="1">
         <v>0</v>
@@ -802,42 +802,42 @@
         <v>0</v>
       </c>
       <c r="L14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M14" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N14" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O14" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="P14" s="1">
         <v>1000</v>
       </c>
       <c r="Q14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S14" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T14" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D15" s="1">
         <v>0</v>
@@ -864,42 +864,42 @@
         <v>0</v>
       </c>
       <c r="L15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="M15" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N15" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O15" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P15" s="1">
         <v>1000</v>
       </c>
       <c r="Q15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S15" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T15" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="16" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D16" s="1">
         <v>0</v>
@@ -926,42 +926,42 @@
         <v>0</v>
       </c>
       <c r="L16" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M16" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N16" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O16" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P16" s="1">
         <v>1000</v>
       </c>
       <c r="Q16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S16" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T16" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D17" s="1">
         <v>0</v>
@@ -988,42 +988,42 @@
         <v>0</v>
       </c>
       <c r="L17" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="M17" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N17" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O17" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P17" s="1">
         <v>1000</v>
       </c>
       <c r="Q17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S17" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T17" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D18" s="1">
         <v>0</v>
@@ -1050,42 +1050,42 @@
         <v>0</v>
       </c>
       <c r="L18" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M18" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N18" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O18" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P18" s="1">
         <v>1000</v>
       </c>
       <c r="Q18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S18" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T18" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="19" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D19" s="1">
         <v>0</v>
@@ -1112,42 +1112,42 @@
         <v>0</v>
       </c>
       <c r="L19" s="1" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="M19" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N19" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O19" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P19" s="1">
         <v>1000</v>
       </c>
       <c r="Q19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S19" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T19" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="20" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20" s="1">
         <v>0</v>
@@ -1174,42 +1174,42 @@
         <v>0</v>
       </c>
       <c r="L20" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M20" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N20" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O20" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P20" s="1">
         <v>1000</v>
       </c>
       <c r="Q20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S20" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T20" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="21" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D21" s="1">
         <v>0</v>
@@ -1236,42 +1236,42 @@
         <v>0</v>
       </c>
       <c r="L21" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="M21" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N21" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O21" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P21" s="1">
         <v>1000</v>
       </c>
       <c r="Q21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S21" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T21" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="22" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22" s="1">
         <v>0</v>
@@ -1298,42 +1298,42 @@
         <v>0</v>
       </c>
       <c r="L22" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M22" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N22" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O22" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P22" s="1">
         <v>1000</v>
       </c>
       <c r="Q22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S22" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T22" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="23" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D23" s="1">
         <v>0</v>
@@ -1360,42 +1360,42 @@
         <v>0</v>
       </c>
       <c r="L23" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="M23" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="N23" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="O23" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="P23" s="1">
         <v>1000</v>
       </c>
       <c r="Q23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S23" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T23" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="24" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
@@ -1422,42 +1422,42 @@
         <v>0</v>
       </c>
       <c r="L24" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N24" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O24" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M24" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N24" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O24" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P24" s="1">
         <v>1000</v>
       </c>
       <c r="Q24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S24" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T24" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="25" spans="1:20" ht="29.15" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D25" s="1">
         <v>0</v>
@@ -1484,31 +1484,31 @@
         <v>0</v>
       </c>
       <c r="L25" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="N25" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="O25" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="M25" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N25" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="O25" s="1" t="s">
-        <v>42</v>
       </c>
       <c r="P25" s="1">
         <v>1000</v>
       </c>
       <c r="Q25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="R25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="S25" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="T25" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
   </sheetData>
@@ -1521,31 +1521,31 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF79AB3-D58C-4409-A801-9A0F45220A36}">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8:XFD12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
   <sheetData>
     <row r="2" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A2" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="4" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>0</v>
@@ -1553,7 +1553,7 @@
     </row>
     <row r="5" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B5" s="2">
         <v>2</v>
@@ -1561,31 +1561,31 @@
     </row>
     <row r="6" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="8" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B8" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
     <row r="9" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>38</v>
+        <v>60</v>
       </c>
     </row>
     <row r="10" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>0</v>
@@ -1593,18 +1593,18 @@
     </row>
     <row r="11" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B11" s="2">
-        <v>2</v>
+        <v>29</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="12" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/scripts/simPlan.xlsx
+++ b/scripts/simPlan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rauna\Documents\fsaeSTAR\scripts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08BFA576-CF8E-4049-9E55-8BC7580307CF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22694620-FD4D-4BE4-8E84-5CB28D35273F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" activeTab="1" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24669" windowHeight="6343" xr2:uid="{E1901939-58F2-4F82-8C5E-6CD93D9437A5}"/>
   </bookViews>
   <sheets>
     <sheet name="Simulation plan" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="62">
   <si>
     <t>iOJDZCUKWsPIjut3CFrKXQ</t>
   </si>
@@ -214,6 +214,9 @@
   </si>
   <si>
     <t>/home/rkumaran/Desktop/star/13.04.010-R8/STAR-CCM+13.04.010-R8/star/bin/starccm+</t>
+  </si>
+  <si>
+    <t>/home/rkumaran/fsaeSTAR/src</t>
   </si>
 </sst>
 </file>
@@ -571,8 +574,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7076140-01E0-454A-827D-3A4389EF111A}">
   <dimension ref="A1:T25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -635,7 +638,7 @@
         <v>30</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
     <row r="10" spans="1:20" x14ac:dyDescent="0.4">
@@ -1521,8 +1524,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAF79AB3-D58C-4409-A801-9A0F45220A36}">
   <dimension ref="A2:B12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -1604,7 +1607,7 @@
         <v>30</v>
       </c>
       <c r="B12" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
